--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.556557</v>
+        <v>8.7162845</v>
       </c>
       <c r="H2">
-        <v>11.113114</v>
+        <v>17.432569</v>
       </c>
       <c r="I2">
-        <v>0.0815737620601474</v>
+        <v>0.1351044665916581</v>
       </c>
       <c r="J2">
-        <v>0.0621180110597097</v>
+        <v>0.1090408454913317</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.213046</v>
+        <v>0.158599</v>
       </c>
       <c r="N2">
-        <v>2.426092</v>
+        <v>0.317198</v>
       </c>
       <c r="O2">
-        <v>0.05336321833961648</v>
+        <v>0.00211272104336201</v>
       </c>
       <c r="P2">
-        <v>0.04472798873679122</v>
+        <v>0.001417204697391224</v>
       </c>
       <c r="Q2">
-        <v>6.740359242621999</v>
+        <v>1.3823940054155</v>
       </c>
       <c r="R2">
-        <v>26.96143697048799</v>
+        <v>5.529576021662</v>
       </c>
       <c r="S2">
-        <v>0.004353038475599568</v>
+        <v>0.0002854380496203957</v>
       </c>
       <c r="T2">
-        <v>0.002778413699030568</v>
+        <v>0.0001545331984378259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.556557</v>
+        <v>8.7162845</v>
       </c>
       <c r="H3">
-        <v>11.113114</v>
+        <v>17.432569</v>
       </c>
       <c r="I3">
-        <v>0.0815737620601474</v>
+        <v>0.1351044665916581</v>
       </c>
       <c r="J3">
-        <v>0.0621180110597097</v>
+        <v>0.1090408454913317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.844629</v>
       </c>
       <c r="O3">
-        <v>0.01238538405055591</v>
+        <v>0.003750476489204033</v>
       </c>
       <c r="P3">
-        <v>0.01557177402949568</v>
+        <v>0.003773706600775704</v>
       </c>
       <c r="Q3">
-        <v>1.564409727451</v>
+        <v>2.4540088869835</v>
       </c>
       <c r="R3">
-        <v>9.386458364706</v>
+        <v>14.724053321901</v>
       </c>
       <c r="S3">
-        <v>0.001010322371563592</v>
+        <v>0.0005067061255384655</v>
       </c>
       <c r="T3">
-        <v>0.000967287631383513</v>
+        <v>0.0004114881583848021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.556557</v>
+        <v>8.7162845</v>
       </c>
       <c r="H4">
-        <v>11.113114</v>
+        <v>17.432569</v>
       </c>
       <c r="I4">
-        <v>0.0815737620601474</v>
+        <v>0.1351044665916581</v>
       </c>
       <c r="J4">
-        <v>0.0621180110597097</v>
+        <v>0.1090408454913317</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.907802333333334</v>
+        <v>2.338276333333333</v>
       </c>
       <c r="N4">
-        <v>14.723407</v>
+        <v>7.014829</v>
       </c>
       <c r="O4">
-        <v>0.215899584584052</v>
+        <v>0.03114852940200566</v>
       </c>
       <c r="P4">
-        <v>0.2714441094827373</v>
+        <v>0.03134146057098777</v>
       </c>
       <c r="Q4">
-        <v>27.27048340989967</v>
+        <v>20.38108176095017</v>
       </c>
       <c r="R4">
-        <v>163.622900459398</v>
+        <v>122.286490565701</v>
       </c>
       <c r="S4">
-        <v>0.01761174134174413</v>
+        <v>0.004208305449972554</v>
       </c>
       <c r="T4">
-        <v>0.01686156819494173</v>
+        <v>0.003417499359593742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.556557</v>
+        <v>8.7162845</v>
       </c>
       <c r="H5">
-        <v>11.113114</v>
+        <v>17.432569</v>
       </c>
       <c r="I5">
-        <v>0.0815737620601474</v>
+        <v>0.1351044665916581</v>
       </c>
       <c r="J5">
-        <v>0.0621180110597097</v>
+        <v>0.1090408454913317</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7415525</v>
+        <v>1.2277185</v>
       </c>
       <c r="N5">
-        <v>25.483105</v>
+        <v>2.455437</v>
       </c>
       <c r="O5">
-        <v>0.560514809861445</v>
+        <v>0.01635462209897188</v>
       </c>
       <c r="P5">
-        <v>0.4698123704370932</v>
+        <v>0.01097061409765577</v>
       </c>
       <c r="Q5">
-        <v>70.7991627347425</v>
+        <v>10.70114373191325</v>
       </c>
       <c r="R5">
-        <v>283.19665093897</v>
+        <v>42.804574927653</v>
       </c>
       <c r="S5">
-        <v>0.04572330173082627</v>
+        <v>0.00220958249498974</v>
       </c>
       <c r="T5">
-        <v>0.02918381002279979</v>
+        <v>0.001196245036767508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.556557</v>
+        <v>8.7162845</v>
       </c>
       <c r="H6">
-        <v>11.113114</v>
+        <v>17.432569</v>
       </c>
       <c r="I6">
-        <v>0.0815737620601474</v>
+        <v>0.1351044665916581</v>
       </c>
       <c r="J6">
-        <v>0.0621180110597097</v>
+        <v>0.1090408454913317</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.301343</v>
+        <v>70.07151033333334</v>
       </c>
       <c r="N6">
-        <v>0.904029</v>
+        <v>210.214531</v>
       </c>
       <c r="O6">
-        <v>0.01325640767465953</v>
+        <v>0.9334330886158921</v>
       </c>
       <c r="P6">
-        <v>0.01666688605779692</v>
+        <v>0.9392146885954294</v>
       </c>
       <c r="Q6">
-        <v>1.674429556051</v>
+        <v>610.7632194100232</v>
       </c>
       <c r="R6">
-        <v>10.046577336306</v>
+        <v>3664.579316460139</v>
       </c>
       <c r="S6">
-        <v>0.001081375045424989</v>
+        <v>0.1261109795364541</v>
       </c>
       <c r="T6">
-        <v>0.00103531381246915</v>
+        <v>0.1024127637423234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.556557</v>
+        <v>8.7162845</v>
       </c>
       <c r="H7">
-        <v>11.113114</v>
+        <v>17.432569</v>
       </c>
       <c r="I7">
-        <v>0.0815737620601474</v>
+        <v>0.1351044665916581</v>
       </c>
       <c r="J7">
-        <v>0.0621180110597097</v>
+        <v>0.1090408454913317</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.286588</v>
+        <v>0.9909476666666667</v>
       </c>
       <c r="N7">
-        <v>9.859764</v>
+        <v>2.972843</v>
       </c>
       <c r="O7">
-        <v>0.144580595489671</v>
+        <v>0.01320056235056431</v>
       </c>
       <c r="P7">
-        <v>0.1817768712560858</v>
+        <v>0.01328232543776007</v>
       </c>
       <c r="Q7">
-        <v>18.262113557516</v>
+        <v>8.637381787277834</v>
       </c>
       <c r="R7">
-        <v>109.572681345096</v>
+        <v>51.824290723667</v>
       </c>
       <c r="S7">
-        <v>0.01179398309498884</v>
+        <v>0.001783454935082916</v>
       </c>
       <c r="T7">
-        <v>0.01129161769908496</v>
+        <v>0.00144831599582438</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.09229233333334</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H8">
-        <v>87.27687700000001</v>
+        <v>87.276877</v>
       </c>
       <c r="I8">
-        <v>0.4270932040440841</v>
+        <v>0.4509373962751657</v>
       </c>
       <c r="J8">
-        <v>0.4878440022070253</v>
+        <v>0.5459174984434572</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.213046</v>
+        <v>0.158599</v>
       </c>
       <c r="N8">
-        <v>2.426092</v>
+        <v>0.317198</v>
       </c>
       <c r="O8">
-        <v>0.05336321833961648</v>
+        <v>0.00211272104336201</v>
       </c>
       <c r="P8">
-        <v>0.04472798873679122</v>
+        <v>0.001417204697391224</v>
       </c>
       <c r="Q8">
-        <v>35.29028884578067</v>
+        <v>4.614008471774333</v>
       </c>
       <c r="R8">
-        <v>211.741733074684</v>
+        <v>27.684050830646</v>
       </c>
       <c r="S8">
-        <v>0.02279106789877084</v>
+        <v>0.0009527049263494161</v>
       </c>
       <c r="T8">
-        <v>0.02182028103602698</v>
+        <v>0.0007736768431821334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.09229233333334</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H9">
-        <v>87.27687700000001</v>
+        <v>87.276877</v>
       </c>
       <c r="I9">
-        <v>0.4270932040440841</v>
+        <v>0.4509373962751657</v>
       </c>
       <c r="J9">
-        <v>0.4878440022070253</v>
+        <v>0.5459174984434572</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>0.844629</v>
       </c>
       <c r="O9">
-        <v>0.01238538405055591</v>
+        <v>0.003750476489204033</v>
       </c>
       <c r="P9">
-        <v>0.01557177402949568</v>
+        <v>0.003773706600775704</v>
       </c>
       <c r="Q9">
-        <v>8.190731260403668</v>
+        <v>8.190731260403666</v>
       </c>
       <c r="R9">
-        <v>73.71658134363301</v>
+        <v>73.716581343633</v>
       </c>
       <c r="S9">
-        <v>0.00528971335746842</v>
+        <v>0.001691230102832891</v>
       </c>
       <c r="T9">
-        <v>0.007596596564012591</v>
+        <v>0.002060132467355035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.09229233333334</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H10">
-        <v>87.27687700000001</v>
+        <v>87.276877</v>
       </c>
       <c r="I10">
-        <v>0.4270932040440841</v>
+        <v>0.4509373962751657</v>
       </c>
       <c r="J10">
-        <v>0.4878440022070253</v>
+        <v>0.5459174984434572</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.907802333333334</v>
+        <v>2.338276333333333</v>
       </c>
       <c r="N10">
-        <v>14.723407</v>
+        <v>7.014829</v>
       </c>
       <c r="O10">
-        <v>0.215899584584052</v>
+        <v>0.03114852940200566</v>
       </c>
       <c r="P10">
-        <v>0.2714441094827373</v>
+        <v>0.03134146057098777</v>
       </c>
       <c r="Q10">
-        <v>142.7792201955488</v>
+        <v>68.02581864544811</v>
       </c>
       <c r="R10">
-        <v>1285.012981759939</v>
+        <v>612.232367809033</v>
       </c>
       <c r="S10">
-        <v>0.09220924533178952</v>
+        <v>0.01404603674634087</v>
       </c>
       <c r="T10">
-        <v>0.1324223807455805</v>
+        <v>0.01710985175247789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.09229233333334</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H11">
-        <v>87.27687700000001</v>
+        <v>87.276877</v>
       </c>
       <c r="I11">
-        <v>0.4270932040440841</v>
+        <v>0.4509373962751657</v>
       </c>
       <c r="J11">
-        <v>0.4878440022070253</v>
+        <v>0.5459174984434572</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7415525</v>
+        <v>1.2277185</v>
       </c>
       <c r="N11">
-        <v>25.483105</v>
+        <v>2.455437</v>
       </c>
       <c r="O11">
-        <v>0.560514809861445</v>
+        <v>0.01635462209897188</v>
       </c>
       <c r="P11">
-        <v>0.4698123704370932</v>
+        <v>0.01097061409765577</v>
       </c>
       <c r="Q11">
-        <v>370.6809701105142</v>
+        <v>35.7171455050415</v>
       </c>
       <c r="R11">
-        <v>2224.085820663086</v>
+        <v>214.302873030249</v>
       </c>
       <c r="S11">
-        <v>0.2393920660578851</v>
+        <v>0.007374910706374666</v>
       </c>
       <c r="T11">
-        <v>0.2291951470804011</v>
+        <v>0.005989050204580761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.09229233333334</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H12">
-        <v>87.27687700000001</v>
+        <v>87.276877</v>
       </c>
       <c r="I12">
-        <v>0.4270932040440841</v>
+        <v>0.4509373962751657</v>
       </c>
       <c r="J12">
-        <v>0.4878440022070253</v>
+        <v>0.5459174984434572</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.301343</v>
+        <v>70.07151033333334</v>
       </c>
       <c r="N12">
-        <v>0.904029</v>
+        <v>210.214531</v>
       </c>
       <c r="O12">
-        <v>0.01325640767465953</v>
+        <v>0.9334330886158921</v>
       </c>
       <c r="P12">
-        <v>0.01666688605779692</v>
+        <v>0.9392146885954294</v>
       </c>
       <c r="Q12">
-        <v>8.766758648603666</v>
+        <v>2038.540862855521</v>
       </c>
       <c r="R12">
-        <v>78.90082783743301</v>
+        <v>18346.86776569969</v>
       </c>
       <c r="S12">
-        <v>0.005661721627884927</v>
+        <v>0.4209198865775364</v>
       </c>
       <c r="T12">
-        <v>0.008130840398764118</v>
+        <v>0.5127337332993674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.09229233333334</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H13">
-        <v>87.27687700000001</v>
+        <v>87.276877</v>
       </c>
       <c r="I13">
-        <v>0.4270932040440841</v>
+        <v>0.4509373962751657</v>
       </c>
       <c r="J13">
-        <v>0.4878440022070253</v>
+        <v>0.5459174984434572</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.286588</v>
+        <v>0.9909476666666667</v>
       </c>
       <c r="N13">
-        <v>9.859764</v>
+        <v>2.972843</v>
       </c>
       <c r="O13">
-        <v>0.144580595489671</v>
+        <v>0.01320056235056431</v>
       </c>
       <c r="P13">
-        <v>0.1817768712560858</v>
+        <v>0.01328232543776007</v>
       </c>
       <c r="Q13">
-        <v>95.61437887522534</v>
+        <v>28.82893920570122</v>
       </c>
       <c r="R13">
-        <v>860.5294098770281</v>
+        <v>259.460452851311</v>
       </c>
       <c r="S13">
-        <v>0.06174938977028526</v>
+        <v>0.005952627215731452</v>
       </c>
       <c r="T13">
-        <v>0.08867875638224007</v>
+        <v>0.007251053876493873</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.533276</v>
+        <v>0.4287876666666666</v>
       </c>
       <c r="H14">
-        <v>4.599828</v>
+        <v>1.286363</v>
       </c>
       <c r="I14">
-        <v>0.02250945893230908</v>
+        <v>0.006646310017310896</v>
       </c>
       <c r="J14">
-        <v>0.02571126028013052</v>
+        <v>0.008046209891884891</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.213046</v>
+        <v>0.158599</v>
       </c>
       <c r="N14">
-        <v>2.426092</v>
+        <v>0.317198</v>
       </c>
       <c r="O14">
-        <v>0.05336321833961648</v>
+        <v>0.00211272104336201</v>
       </c>
       <c r="P14">
-        <v>0.04472798873679122</v>
+        <v>0.001417204697391224</v>
       </c>
       <c r="Q14">
-        <v>1.859934318696</v>
+        <v>0.06800529514566665</v>
       </c>
       <c r="R14">
-        <v>11.159605912176</v>
+        <v>0.4080317708739999</v>
       </c>
       <c r="S14">
-        <v>0.00120117717171144</v>
+        <v>1.404179903428045E-05</v>
       </c>
       <c r="T14">
-        <v>0.001150012960218385</v>
+        <v>1.1403126454975E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.533276</v>
+        <v>0.4287876666666666</v>
       </c>
       <c r="H15">
-        <v>4.599828</v>
+        <v>1.286363</v>
       </c>
       <c r="I15">
-        <v>0.02250945893230908</v>
+        <v>0.006646310017310896</v>
       </c>
       <c r="J15">
-        <v>0.02571126028013052</v>
+        <v>0.008046209891884891</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.844629</v>
       </c>
       <c r="O15">
-        <v>0.01238538405055591</v>
+        <v>0.003750476489204033</v>
       </c>
       <c r="P15">
-        <v>0.01557177402949568</v>
+        <v>0.003773706600775704</v>
       </c>
       <c r="Q15">
-        <v>0.431683124868</v>
+        <v>0.1207221660363333</v>
       </c>
       <c r="R15">
-        <v>3.885148123812</v>
+        <v>1.086499494327</v>
       </c>
       <c r="S15">
-        <v>0.0002787882936468642</v>
+        <v>2.492682945988576E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004003699350957402</v>
+        <v>3.036403538023278E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.533276</v>
+        <v>0.4287876666666666</v>
       </c>
       <c r="H16">
-        <v>4.599828</v>
+        <v>1.286363</v>
       </c>
       <c r="I16">
-        <v>0.02250945893230908</v>
+        <v>0.006646310017310896</v>
       </c>
       <c r="J16">
-        <v>0.02571126028013052</v>
+        <v>0.008046209891884891</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.907802333333334</v>
+        <v>2.338276333333333</v>
       </c>
       <c r="N16">
-        <v>14.723407</v>
+        <v>7.014829</v>
       </c>
       <c r="O16">
-        <v>0.215899584584052</v>
+        <v>0.03114852940200566</v>
       </c>
       <c r="P16">
-        <v>0.2714441094827373</v>
+        <v>0.03134146057098777</v>
       </c>
       <c r="Q16">
-        <v>7.525015530444001</v>
+        <v>1.002624052991889</v>
       </c>
       <c r="R16">
-        <v>67.72513977399601</v>
+        <v>9.023616476927</v>
       </c>
       <c r="S16">
-        <v>0.00485978283269731</v>
+        <v>0.0002070227829890532</v>
       </c>
       <c r="T16">
-        <v>0.006979170150418903</v>
+        <v>0.0002521799700724021</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.533276</v>
+        <v>0.4287876666666666</v>
       </c>
       <c r="H17">
-        <v>4.599828</v>
+        <v>1.286363</v>
       </c>
       <c r="I17">
-        <v>0.02250945893230908</v>
+        <v>0.006646310017310896</v>
       </c>
       <c r="J17">
-        <v>0.02571126028013052</v>
+        <v>0.008046209891884891</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.7415525</v>
+        <v>1.2277185</v>
       </c>
       <c r="N17">
-        <v>25.483105</v>
+        <v>2.455437</v>
       </c>
       <c r="O17">
-        <v>0.560514809861445</v>
+        <v>0.01635462209897188</v>
       </c>
       <c r="P17">
-        <v>0.4698123704370932</v>
+        <v>0.01097061409765577</v>
       </c>
       <c r="Q17">
-        <v>19.53631665099</v>
+        <v>0.5264305509384999</v>
       </c>
       <c r="R17">
-        <v>117.21789990594</v>
+        <v>3.158583305631</v>
       </c>
       <c r="S17">
-        <v>0.01261688509352723</v>
+        <v>0.000108697888685731</v>
       </c>
       <c r="T17">
-        <v>0.0120794681391332</v>
+        <v>8.827186367260968E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.533276</v>
+        <v>0.4287876666666666</v>
       </c>
       <c r="H18">
-        <v>4.599828</v>
+        <v>1.286363</v>
       </c>
       <c r="I18">
-        <v>0.02250945893230908</v>
+        <v>0.006646310017310896</v>
       </c>
       <c r="J18">
-        <v>0.02571126028013052</v>
+        <v>0.008046209891884891</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.301343</v>
+        <v>70.07151033333334</v>
       </c>
       <c r="N18">
-        <v>0.904029</v>
+        <v>210.214531</v>
       </c>
       <c r="O18">
-        <v>0.01325640767465953</v>
+        <v>0.9334330886158921</v>
       </c>
       <c r="P18">
-        <v>0.01666688605779692</v>
+        <v>0.9392146885954294</v>
       </c>
       <c r="Q18">
-        <v>0.462041989668</v>
+        <v>30.04579941563922</v>
       </c>
       <c r="R18">
-        <v>4.158377907012</v>
+        <v>270.412194740753</v>
       </c>
       <c r="S18">
-        <v>0.0002983945641426957</v>
+        <v>0.006203885687357253</v>
       </c>
       <c r="T18">
-        <v>0.0004285266454912949</v>
+        <v>0.007557118517980132</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.533276</v>
+        <v>0.4287876666666666</v>
       </c>
       <c r="H19">
-        <v>4.599828</v>
+        <v>1.286363</v>
       </c>
       <c r="I19">
-        <v>0.02250945893230908</v>
+        <v>0.006646310017310896</v>
       </c>
       <c r="J19">
-        <v>0.02571126028013052</v>
+        <v>0.008046209891884891</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.286588</v>
+        <v>0.9909476666666667</v>
       </c>
       <c r="N19">
-        <v>9.859764</v>
+        <v>2.972843</v>
       </c>
       <c r="O19">
-        <v>0.144580595489671</v>
+        <v>0.01320056235056431</v>
       </c>
       <c r="P19">
-        <v>0.1817768712560858</v>
+        <v>0.01328232543776007</v>
       </c>
       <c r="Q19">
-        <v>5.039246502288</v>
+        <v>0.4249061377787777</v>
       </c>
       <c r="R19">
-        <v>45.35321852059201</v>
+        <v>3.824155240009</v>
       </c>
       <c r="S19">
-        <v>0.003254430976583542</v>
+        <v>8.773502978469266E-05</v>
       </c>
       <c r="T19">
-        <v>0.004673712449772997</v>
+        <v>0.0001068723783245394</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.8910855</v>
+        <v>24.957239</v>
       </c>
       <c r="H20">
-        <v>39.78217100000001</v>
+        <v>49.914478</v>
       </c>
       <c r="I20">
-        <v>0.2920136832385681</v>
+        <v>0.3868430938314975</v>
       </c>
       <c r="J20">
-        <v>0.222366956566563</v>
+        <v>0.3122154217991895</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.213046</v>
+        <v>0.158599</v>
       </c>
       <c r="N20">
-        <v>2.426092</v>
+        <v>0.317198</v>
       </c>
       <c r="O20">
-        <v>0.05336321833961648</v>
+        <v>0.00211272104336201</v>
       </c>
       <c r="P20">
-        <v>0.04472798873679122</v>
+        <v>0.001417204697391224</v>
       </c>
       <c r="Q20">
-        <v>24.128801701433</v>
+        <v>3.958193148161</v>
       </c>
       <c r="R20">
-        <v>96.51520680573201</v>
+        <v>15.832772592644</v>
       </c>
       <c r="S20">
-        <v>0.01558278993681531</v>
+        <v>0.0008172915448170692</v>
       </c>
       <c r="T20">
-        <v>0.00994602672874377</v>
+        <v>0.0004424731623717936</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.8910855</v>
+        <v>24.957239</v>
       </c>
       <c r="H21">
-        <v>39.78217100000001</v>
+        <v>49.914478</v>
       </c>
       <c r="I21">
-        <v>0.2920136832385681</v>
+        <v>0.3868430938314975</v>
       </c>
       <c r="J21">
-        <v>0.222366956566563</v>
+        <v>0.3122154217991895</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.844629</v>
       </c>
       <c r="O21">
-        <v>0.01238538405055591</v>
+        <v>0.003750476489204033</v>
       </c>
       <c r="P21">
-        <v>0.01557177402949568</v>
+        <v>0.003773706600775704</v>
       </c>
       <c r="Q21">
-        <v>5.6001958849265</v>
+        <v>7.026535939777</v>
       </c>
       <c r="R21">
-        <v>33.601175309559</v>
+        <v>42.159215638662</v>
       </c>
       <c r="S21">
-        <v>0.003616701614927047</v>
+        <v>0.001450845928425981</v>
       </c>
       <c r="T21">
-        <v>0.003462647999281199</v>
+        <v>0.001178209398107572</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.8910855</v>
+        <v>24.957239</v>
       </c>
       <c r="H22">
-        <v>39.78217100000001</v>
+        <v>49.914478</v>
       </c>
       <c r="I22">
-        <v>0.2920136832385681</v>
+        <v>0.3868430938314975</v>
       </c>
       <c r="J22">
-        <v>0.222366956566563</v>
+        <v>0.3122154217991895</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.907802333333334</v>
+        <v>2.338276333333333</v>
       </c>
       <c r="N22">
-        <v>14.723407</v>
+        <v>7.014829</v>
       </c>
       <c r="O22">
-        <v>0.215899584584052</v>
+        <v>0.03114852940200566</v>
       </c>
       <c r="P22">
-        <v>0.2714441094827373</v>
+        <v>0.03134146057098777</v>
       </c>
       <c r="Q22">
-        <v>97.62151582943285</v>
+        <v>58.35692129904367</v>
       </c>
       <c r="R22">
-        <v>585.729094976597</v>
+        <v>350.141527794262</v>
       </c>
       <c r="S22">
-        <v>0.0630456329040658</v>
+        <v>0.01204959348217323</v>
       </c>
       <c r="T22">
-        <v>0.0603602005035972</v>
+        <v>0.009785287331973614</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.8910855</v>
+        <v>24.957239</v>
       </c>
       <c r="H23">
-        <v>39.78217100000001</v>
+        <v>49.914478</v>
       </c>
       <c r="I23">
-        <v>0.2920136832385681</v>
+        <v>0.3868430938314975</v>
       </c>
       <c r="J23">
-        <v>0.222366956566563</v>
+        <v>0.3122154217991895</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.7415525</v>
+        <v>1.2277185</v>
       </c>
       <c r="N23">
-        <v>25.483105</v>
+        <v>2.455437</v>
       </c>
       <c r="O23">
-        <v>0.560514809861445</v>
+        <v>0.01635462209897188</v>
       </c>
       <c r="P23">
-        <v>0.4698123704370932</v>
+        <v>0.01097061409765577</v>
       </c>
       <c r="Q23">
-        <v>253.4433101802388</v>
+        <v>30.6404640292215</v>
       </c>
       <c r="R23">
-        <v>1013.773240720955</v>
+        <v>122.561856116886</v>
       </c>
       <c r="S23">
-        <v>0.1636779941374062</v>
+        <v>0.006326672611211261</v>
       </c>
       <c r="T23">
-        <v>0.1044707469714191</v>
+        <v>0.00342519490789573</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.8910855</v>
+        <v>24.957239</v>
       </c>
       <c r="H24">
-        <v>39.78217100000001</v>
+        <v>49.914478</v>
       </c>
       <c r="I24">
-        <v>0.2920136832385681</v>
+        <v>0.3868430938314975</v>
       </c>
       <c r="J24">
-        <v>0.222366956566563</v>
+        <v>0.3122154217991895</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.301343</v>
+        <v>70.07151033333334</v>
       </c>
       <c r="N24">
-        <v>0.904029</v>
+        <v>210.214531</v>
       </c>
       <c r="O24">
-        <v>0.01325640767465953</v>
+        <v>0.9334330886158921</v>
       </c>
       <c r="P24">
-        <v>0.01666688605779692</v>
+        <v>0.9392146885954294</v>
       </c>
       <c r="Q24">
-        <v>5.994039377826501</v>
+        <v>1748.79143047997</v>
       </c>
       <c r="R24">
-        <v>35.96423626695901</v>
+        <v>10492.74858287982</v>
       </c>
       <c r="S24">
-        <v>0.003871052431589352</v>
+        <v>0.361092143884862</v>
       </c>
       <c r="T24">
-        <v>0.003706164728113981</v>
+        <v>0.2932373101598164</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.8910855</v>
+        <v>24.957239</v>
       </c>
       <c r="H25">
-        <v>39.78217100000001</v>
+        <v>49.914478</v>
       </c>
       <c r="I25">
-        <v>0.2920136832385681</v>
+        <v>0.3868430938314975</v>
       </c>
       <c r="J25">
-        <v>0.222366956566563</v>
+        <v>0.3122154217991895</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.286588</v>
+        <v>0.9909476666666667</v>
       </c>
       <c r="N25">
-        <v>9.859764</v>
+        <v>2.972843</v>
       </c>
       <c r="O25">
-        <v>0.144580595489671</v>
+        <v>0.01320056235056431</v>
       </c>
       <c r="P25">
-        <v>0.1817768712560858</v>
+        <v>0.01328232543776007</v>
       </c>
       <c r="Q25">
-        <v>65.37380291127401</v>
+        <v>24.73131775349233</v>
       </c>
       <c r="R25">
-        <v>392.242817467644</v>
+        <v>148.387906520954</v>
       </c>
       <c r="S25">
-        <v>0.04221951221376434</v>
+        <v>0.005106546380007883</v>
       </c>
       <c r="T25">
-        <v>0.04042116963540773</v>
+        <v>0.004146946839024363</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.769386999999999</v>
+        <v>0.500492</v>
       </c>
       <c r="H26">
-        <v>17.308161</v>
+        <v>1.501476</v>
       </c>
       <c r="I26">
-        <v>0.08469824072189083</v>
+        <v>0.007757744104542727</v>
       </c>
       <c r="J26">
-        <v>0.09674592885677552</v>
+        <v>0.009391743266580087</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.213046</v>
+        <v>0.158599</v>
       </c>
       <c r="N26">
-        <v>2.426092</v>
+        <v>0.317198</v>
       </c>
       <c r="O26">
-        <v>0.05336321833961648</v>
+        <v>0.00211272104336201</v>
       </c>
       <c r="P26">
-        <v>0.04472798873679122</v>
+        <v>0.001417204697391224</v>
       </c>
       <c r="Q26">
-        <v>6.998531822801998</v>
+        <v>0.07937753070800001</v>
       </c>
       <c r="R26">
-        <v>41.99119093681199</v>
+        <v>0.4762651842480001</v>
       </c>
       <c r="S26">
-        <v>0.004519770712623656</v>
+        <v>1.638994921868499E-05</v>
       </c>
       <c r="T26">
-        <v>0.00432725081623626</v>
+        <v>1.331002267408969E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.769386999999999</v>
+        <v>0.500492</v>
       </c>
       <c r="H27">
-        <v>17.308161</v>
+        <v>1.501476</v>
       </c>
       <c r="I27">
-        <v>0.08469824072189083</v>
+        <v>0.007757744104542727</v>
       </c>
       <c r="J27">
-        <v>0.09674592885677552</v>
+        <v>0.009391743266580087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.844629</v>
       </c>
       <c r="O27">
-        <v>0.01238538405055591</v>
+        <v>0.003750476489204033</v>
       </c>
       <c r="P27">
-        <v>0.01557177402949568</v>
+        <v>0.003773706600775704</v>
       </c>
       <c r="Q27">
-        <v>1.624330524141</v>
+        <v>0.140910019156</v>
       </c>
       <c r="R27">
-        <v>14.618974717269</v>
+        <v>1.268190172404</v>
       </c>
       <c r="S27">
-        <v>0.001049020239747052</v>
+        <v>2.909523687334869E-05</v>
       </c>
       <c r="T27">
-        <v>0.001506505742431374</v>
+        <v>3.544168355788405E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.769386999999999</v>
+        <v>0.500492</v>
       </c>
       <c r="H28">
-        <v>17.308161</v>
+        <v>1.501476</v>
       </c>
       <c r="I28">
-        <v>0.08469824072189083</v>
+        <v>0.007757744104542727</v>
       </c>
       <c r="J28">
-        <v>0.09674592885677552</v>
+        <v>0.009391743266580087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.907802333333334</v>
+        <v>2.338276333333333</v>
       </c>
       <c r="N28">
-        <v>14.723407</v>
+        <v>7.014829</v>
       </c>
       <c r="O28">
-        <v>0.215899584584052</v>
+        <v>0.03114852940200566</v>
       </c>
       <c r="P28">
-        <v>0.2714441094827373</v>
+        <v>0.03134146057098777</v>
       </c>
       <c r="Q28">
-        <v>28.315010980503</v>
+        <v>1.170288598622667</v>
       </c>
       <c r="R28">
-        <v>254.835098824527</v>
+        <v>10.532597387604</v>
       </c>
       <c r="S28">
-        <v>0.01828631498685627</v>
+        <v>0.0002416423203335852</v>
       </c>
       <c r="T28">
-        <v>0.02626111250460769</v>
+        <v>0.0002943509512823597</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.769386999999999</v>
+        <v>0.500492</v>
       </c>
       <c r="H29">
-        <v>17.308161</v>
+        <v>1.501476</v>
       </c>
       <c r="I29">
-        <v>0.08469824072189083</v>
+        <v>0.007757744104542727</v>
       </c>
       <c r="J29">
-        <v>0.09674592885677552</v>
+        <v>0.009391743266580087</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.7415525</v>
+        <v>1.2277185</v>
       </c>
       <c r="N29">
-        <v>25.483105</v>
+        <v>2.455437</v>
       </c>
       <c r="O29">
-        <v>0.560514809861445</v>
+        <v>0.01635462209897188</v>
       </c>
       <c r="P29">
-        <v>0.4698123704370932</v>
+        <v>0.01097061409765577</v>
       </c>
       <c r="Q29">
-        <v>73.51094735331749</v>
+        <v>0.6144632875020001</v>
       </c>
       <c r="R29">
-        <v>441.065684119905</v>
+        <v>3.686779725012</v>
       </c>
       <c r="S29">
-        <v>0.04747461829382953</v>
+        <v>0.0001268749731703233</v>
       </c>
       <c r="T29">
-        <v>0.04545243416634008</v>
+        <v>0.0001030331910819071</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.769386999999999</v>
+        <v>0.500492</v>
       </c>
       <c r="H30">
-        <v>17.308161</v>
+        <v>1.501476</v>
       </c>
       <c r="I30">
-        <v>0.08469824072189083</v>
+        <v>0.007757744104542727</v>
       </c>
       <c r="J30">
-        <v>0.09674592885677552</v>
+        <v>0.009391743266580087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.301343</v>
+        <v>70.07151033333334</v>
       </c>
       <c r="N30">
-        <v>0.904029</v>
+        <v>210.214531</v>
       </c>
       <c r="O30">
-        <v>0.01325640767465953</v>
+        <v>0.9334330886158921</v>
       </c>
       <c r="P30">
-        <v>0.01666688605779692</v>
+        <v>0.9392146885954294</v>
       </c>
       <c r="Q30">
-        <v>1.738564386741</v>
+        <v>35.07023034975067</v>
       </c>
       <c r="R30">
-        <v>15.647079480669</v>
+        <v>315.632073147756</v>
       </c>
       <c r="S30">
-        <v>0.001122794408335834</v>
+        <v>0.007241335040195047</v>
       </c>
       <c r="T30">
-        <v>0.001612453372811604</v>
+        <v>0.008820863227489237</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.769386999999999</v>
+        <v>0.500492</v>
       </c>
       <c r="H31">
-        <v>17.308161</v>
+        <v>1.501476</v>
       </c>
       <c r="I31">
-        <v>0.08469824072189083</v>
+        <v>0.007757744104542727</v>
       </c>
       <c r="J31">
-        <v>0.09674592885677552</v>
+        <v>0.009391743266580087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.286588</v>
+        <v>0.9909476666666667</v>
       </c>
       <c r="N31">
-        <v>9.859764</v>
+        <v>2.972843</v>
       </c>
       <c r="O31">
-        <v>0.144580595489671</v>
+        <v>0.01320056235056431</v>
       </c>
       <c r="P31">
-        <v>0.1817768712560858</v>
+        <v>0.01328232543776007</v>
       </c>
       <c r="Q31">
-        <v>18.961598081556</v>
+        <v>0.4959613795853334</v>
       </c>
       <c r="R31">
-        <v>170.654382734004</v>
+        <v>4.463652416268001</v>
       </c>
       <c r="S31">
-        <v>0.01224572208049848</v>
+        <v>0.000102406584751739</v>
       </c>
       <c r="T31">
-        <v>0.01758617225434852</v>
+        <v>0.0001247441904946085</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.274366000000001</v>
+        <v>0.8200513333333332</v>
       </c>
       <c r="H32">
-        <v>18.823098</v>
+        <v>2.460154</v>
       </c>
       <c r="I32">
-        <v>0.09211165100300039</v>
+        <v>0.01271098917982519</v>
       </c>
       <c r="J32">
-        <v>0.1052138410297959</v>
+        <v>0.01538828110755687</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.213046</v>
+        <v>0.158599</v>
       </c>
       <c r="N32">
-        <v>2.426092</v>
+        <v>0.317198</v>
       </c>
       <c r="O32">
-        <v>0.05336321833961648</v>
+        <v>0.00211272104336201</v>
       </c>
       <c r="P32">
-        <v>0.04472798873679122</v>
+        <v>0.001417204697391224</v>
       </c>
       <c r="Q32">
-        <v>7.611094578836</v>
+        <v>0.1300593214153333</v>
       </c>
       <c r="R32">
-        <v>45.66656747301599</v>
+        <v>0.7803559284919999</v>
       </c>
       <c r="S32">
-        <v>0.004915374144095663</v>
+        <v>2.685477432216349E-05</v>
       </c>
       <c r="T32">
-        <v>0.004706003496535255</v>
+        <v>2.180834427040622E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.274366000000001</v>
+        <v>0.8200513333333332</v>
       </c>
       <c r="H33">
-        <v>18.823098</v>
+        <v>2.460154</v>
       </c>
       <c r="I33">
-        <v>0.09211165100300039</v>
+        <v>0.01271098917982519</v>
       </c>
       <c r="J33">
-        <v>0.1052138410297959</v>
+        <v>0.01538828110755687</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.844629</v>
       </c>
       <c r="O33">
-        <v>0.01238538405055591</v>
+        <v>0.003750476489204033</v>
       </c>
       <c r="P33">
-        <v>0.01557177402949568</v>
+        <v>0.003773706600775704</v>
       </c>
       <c r="Q33">
-        <v>1.766503826738</v>
+        <v>0.2308797125406666</v>
       </c>
       <c r="R33">
-        <v>15.898534440642</v>
+        <v>2.077917412866</v>
       </c>
       <c r="S33">
-        <v>0.001140838173202933</v>
+        <v>4.767226607346122E-05</v>
       </c>
       <c r="T33">
-        <v>0.001638366157291264</v>
+        <v>5.807085799017943E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.274366000000001</v>
+        <v>0.8200513333333332</v>
       </c>
       <c r="H34">
-        <v>18.823098</v>
+        <v>2.460154</v>
       </c>
       <c r="I34">
-        <v>0.09211165100300039</v>
+        <v>0.01271098917982519</v>
       </c>
       <c r="J34">
-        <v>0.1052138410297959</v>
+        <v>0.01538828110755687</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.907802333333334</v>
+        <v>2.338276333333333</v>
       </c>
       <c r="N34">
-        <v>14.723407</v>
+        <v>7.014829</v>
       </c>
       <c r="O34">
-        <v>0.215899584584052</v>
+        <v>0.03114852940200566</v>
       </c>
       <c r="P34">
-        <v>0.2714441094827373</v>
+        <v>0.03134146057098777</v>
       </c>
       <c r="Q34">
-        <v>30.79334809498734</v>
+        <v>1.917506624851778</v>
       </c>
       <c r="R34">
-        <v>277.140132854886</v>
+        <v>17.257559623666</v>
       </c>
       <c r="S34">
-        <v>0.01988686718689896</v>
+        <v>0.0003959286201963607</v>
       </c>
       <c r="T34">
-        <v>0.02855967738359125</v>
+        <v>0.0004822912055877697</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.274366000000001</v>
+        <v>0.8200513333333332</v>
       </c>
       <c r="H35">
-        <v>18.823098</v>
+        <v>2.460154</v>
       </c>
       <c r="I35">
-        <v>0.09211165100300039</v>
+        <v>0.01271098917982519</v>
       </c>
       <c r="J35">
-        <v>0.1052138410297959</v>
+        <v>0.01538828110755687</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.7415525</v>
+        <v>1.2277185</v>
       </c>
       <c r="N35">
-        <v>25.483105</v>
+        <v>2.455437</v>
       </c>
       <c r="O35">
-        <v>0.560514809861445</v>
+        <v>0.01635462209897188</v>
       </c>
       <c r="P35">
-        <v>0.4698123704370932</v>
+        <v>0.01097061409765577</v>
       </c>
       <c r="Q35">
-        <v>79.94516379321502</v>
+        <v>1.006792192883</v>
       </c>
       <c r="R35">
-        <v>479.6709827592901</v>
+        <v>6.040753157297999</v>
       </c>
       <c r="S35">
-        <v>0.05162994454797054</v>
+        <v>0.0002078834245401615</v>
       </c>
       <c r="T35">
-        <v>0.04943076405699993</v>
+        <v>0.0001688188936572533</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.274366000000001</v>
+        <v>0.8200513333333332</v>
       </c>
       <c r="H36">
-        <v>18.823098</v>
+        <v>2.460154</v>
       </c>
       <c r="I36">
-        <v>0.09211165100300039</v>
+        <v>0.01271098917982519</v>
       </c>
       <c r="J36">
-        <v>0.1052138410297959</v>
+        <v>0.01538828110755687</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.301343</v>
+        <v>70.07151033333334</v>
       </c>
       <c r="N36">
-        <v>0.904029</v>
+        <v>210.214531</v>
       </c>
       <c r="O36">
-        <v>0.01325640767465953</v>
+        <v>0.9334330886158921</v>
       </c>
       <c r="P36">
-        <v>0.01666688605779692</v>
+        <v>0.9392146885954294</v>
       </c>
       <c r="Q36">
-        <v>1.890736273538</v>
+        <v>57.46223547753044</v>
       </c>
       <c r="R36">
-        <v>17.016626461842</v>
+        <v>517.1601192977739</v>
       </c>
       <c r="S36">
-        <v>0.001221069597281735</v>
+        <v>0.01186485788948741</v>
       </c>
       <c r="T36">
-        <v>0.001753587100146767</v>
+        <v>0.01445289964845296</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.274366000000001</v>
+        <v>0.8200513333333332</v>
       </c>
       <c r="H37">
-        <v>18.823098</v>
+        <v>2.460154</v>
       </c>
       <c r="I37">
-        <v>0.09211165100300039</v>
+        <v>0.01271098917982519</v>
       </c>
       <c r="J37">
-        <v>0.1052138410297959</v>
+        <v>0.01538828110755687</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.286588</v>
+        <v>0.9909476666666667</v>
       </c>
       <c r="N37">
-        <v>9.859764</v>
+        <v>2.972843</v>
       </c>
       <c r="O37">
-        <v>0.144580595489671</v>
+        <v>0.01320056235056431</v>
       </c>
       <c r="P37">
-        <v>0.1817768712560858</v>
+        <v>0.01328232543776007</v>
       </c>
       <c r="Q37">
-        <v>20.621256003208</v>
+        <v>0.8126279553135555</v>
       </c>
       <c r="R37">
-        <v>185.591304028872</v>
+        <v>7.313651597821999</v>
       </c>
       <c r="S37">
-        <v>0.01331755735355055</v>
+        <v>0.0001677922052056307</v>
       </c>
       <c r="T37">
-        <v>0.01912544283523149</v>
+        <v>0.0002043921575983053</v>
       </c>
     </row>
   </sheetData>
